--- a/docs/lista_modelo.xlsx
+++ b/docs/lista_modelo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection lockWindows="false"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" state="visible" r:id="rId3"/>
@@ -906,7 +906,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -986,14 +986,6 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
@@ -1245,8 +1237,8 @@
   </sheetPr>
   <dimension ref="A2:H79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J71" activeCellId="0" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2754,8 +2746,11 @@
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="21"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="15" t="e">
+        <f aca="false">VLOOKUP($D70,Info!$B$2:$E$14,4,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="F70" s="13"/>
       <c r="G70" s="16"/>
       <c r="H70" s="13"/>
@@ -2766,8 +2761,11 @@
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="21"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="15" t="e">
+        <f aca="false">VLOOKUP($D71,Info!$B$2:$E$14,4,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="F71" s="13"/>
       <c r="G71" s="16"/>
       <c r="H71" s="13"/>
@@ -2776,10 +2774,13 @@
       <c r="A72" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="B72" s="22"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="21"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="15" t="e">
+        <f aca="false">VLOOKUP($D72,Info!$B$2:$E$14,4,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="F72" s="13"/>
       <c r="G72" s="16"/>
       <c r="H72" s="13"/>
@@ -2790,8 +2791,11 @@
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="21"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="15" t="e">
+        <f aca="false">VLOOKUP($D73,Info!$B$2:$E$14,4,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="F73" s="13"/>
       <c r="G73" s="16"/>
       <c r="H73" s="13"/>
@@ -2802,8 +2806,11 @@
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="21"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="15" t="e">
+        <f aca="false">VLOOKUP($D74,Info!$B$2:$E$14,4,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="F74" s="13"/>
       <c r="G74" s="16"/>
       <c r="H74" s="13"/>
@@ -2812,10 +2819,13 @@
       <c r="A75" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="21"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="15" t="e">
+        <f aca="false">VLOOKUP($D75,Info!$B$2:$E$14,4,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="F75" s="13"/>
       <c r="G75" s="16"/>
       <c r="H75" s="13"/>
@@ -2826,8 +2836,11 @@
       </c>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="21"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="15" t="e">
+        <f aca="false">VLOOKUP($D76,Info!$B$2:$E$14,4,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="F76" s="13"/>
       <c r="G76" s="16"/>
       <c r="H76" s="13"/>
@@ -2838,8 +2851,11 @@
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="21"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="15" t="e">
+        <f aca="false">VLOOKUP($D77,Info!$B$2:$E$14,4,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="F77" s="13"/>
       <c r="G77" s="16"/>
       <c r="H77" s="13"/>
@@ -2848,10 +2864,13 @@
       <c r="A78" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="B78" s="22"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="21"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="15" t="e">
+        <f aca="false">VLOOKUP($D78,Info!$B$2:$E$14,4,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="F78" s="13"/>
       <c r="G78" s="16"/>
       <c r="H78" s="13"/>
@@ -2862,8 +2881,11 @@
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="21"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="15" t="e">
+        <f aca="false">VLOOKUP($D79,Info!$B$2:$E$14,4,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="F79" s="13"/>
       <c r="G79" s="16"/>
       <c r="H79" s="13"/>
@@ -2907,198 +2929,198 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="24" width="23.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="39.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="24" width="19.62"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="24" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="23.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="39.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="22" width="19.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="22" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="26" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="28" t="s">
+      <c r="B4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="26" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="28" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="26" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="31"/>
+      <c r="B16" s="29"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="31"/>
+      <c r="B17" s="29"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="31"/>
+      <c r="B20" s="29"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" password="c65f" objects="true" scenarios="true" selectLockedCells="true" selectUnlockedCells="true"/>

--- a/docs/lista_modelo.xlsx
+++ b/docs/lista_modelo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection lockWindows="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="116">
   <si>
     <t xml:space="preserve">PLACA (*)</t>
   </si>
@@ -90,12 +90,6 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">Alessandra Carla Coelho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: M5 357670 SSP</t>
-  </si>
-  <si>
     <t xml:space="preserve">Carteira de Identidade</t>
   </si>
   <si>
@@ -105,643 +99,277 @@
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">Mirtes Bacelar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG 21563963</t>
-  </si>
-  <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">André Gonçalves de Almeida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG20282897</t>
-  </si>
-  <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">Katia Rocha dos Santos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG 24446091 PC</t>
-  </si>
-  <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">Gabriel Coelho Dupim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: 16701305</t>
-  </si>
-  <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">Alice Angélica Caldeira Quaresma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG20546567</t>
-  </si>
-  <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">Leila Aparecida Dias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: 345544821 SSP</t>
-  </si>
-  <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
-    <t xml:space="preserve">Leni Bacelar Tibães</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: M2936486</t>
-  </si>
-  <si>
     <t xml:space="preserve">9</t>
   </si>
   <si>
-    <t xml:space="preserve">Christine Alves Ferreira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: 11007372. SSPPC</t>
-  </si>
-  <si>
     <t xml:space="preserve">10</t>
   </si>
   <si>
-    <t xml:space="preserve">Valdomiro Alves Dos Santos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPF: 06616372634</t>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SITUACAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPO_DOCUMENTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPO_VIAGEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORGAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brasileiro Adolescente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autorização de Viagem – FUNAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARTIGO37I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brasileiro Criança</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carteira de Trabalho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministério do Trabalho e Emprego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estrageiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carteira Nacional de Habilitação – CNH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DETRAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carteira Profissional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cédula de Identidade de Estrangeiro -CIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embaixadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certidão Nascimento</t>
   </si>
   <si>
     <t xml:space="preserve">CPF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milena Christine Alves da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG 20936405 PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renan Vinícius Braga Oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG 18509099 SSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cássia Ferreira dos Reis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG-18103273 SSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acibias Alves de Oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG-22.839.038 PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marizete Rosa Martins Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG 3142962 PC/MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iglêssia Maria Ferreira Santos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: 10021462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alice de Almeida Oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: 5714871 PC/GO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luciano de Almeida Oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: 5714870 SSP/GO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lourdes Maria de Almeida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG 5999784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lúcia Maria de Almeida Oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: 6416357 PC/MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hulda Alves Cunha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG-12.880.151(PCMG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Regina Alves Cunha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG-4.710.700(PCMG)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernanda Leal Caiado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG 16 451 216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulisses Ribeiro Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG 13 058 376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicholas Bernardo Cunha de Oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG-22.071.962(PCMG)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brasileiro Criança</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stephany Cunha De Oliveira Gomes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG-20.463.633(PCMG)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denise Pereira Coelho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG 2284746 PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viviane Paola Souza Coelho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG 21221069 PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brasileiro Adolescente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Gustavo Almeida Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG 16590372 SSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talita Maia Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG 17244837 PCMG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ariadne Aparecida de Oliveira Ladeia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG 3099.850</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Tereza Oliveira Ladeia Costa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: 18.552.809 PCMG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rafaella Calixto Vieira Praes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG 18863966 PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel Oliveira Rocha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: 15345003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bruna Milene Oliveira dos Reis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG-18103262 SSPMG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fábio Júnior Gonçalves de Souza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: 18444150 SSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aline Oliveira Duraes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG7967441 PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julia Coimbra Duraes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG 21768314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leonardo Adriano Alves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG-10.372.338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabrina Santos Ferreira Mendonça</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: 11.961-448 SSPMG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evelin de Jesus Santos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG-21.887.274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marilda Vilela de Azevedo Belesa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: 324.254 SSP/DF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaqueline Mendes de Oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG 20533271 PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evanice Maria Gomes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG 8115034 SSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passageiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05.465.456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luciana Gomes Neves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG 8466687 PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claudia Amorim Dias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: M6321939 SSPMG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veruska Julliana Silva Nascimento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG8815767 PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melissa Silva Alves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG16745196 SSPMG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isabel Cristina da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG 6509849 PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haroldo da Silva Quintino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: M2834011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norma Sueli de Azevedo Quintino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: M3270505 SSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carolina Fatima de Morais Marinho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG 7250221 PC/MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Túlio César Vargas Barbosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG 12272581 PC/MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neuza Soares Ramos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG 1.108.224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maristela de Azevedo Freitas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: M1622490</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aldair Chaves Vieira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: M 4735450 SSP/MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gilmar Lopes Vieira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: M 998546 SSP/MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Cristina Caldeira Quaresma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: MG16722625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inalberth Aguiar Caldeira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: M2850728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angelo Coelho Dettori</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13078976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kimberlin Christini Faria Ribeiro Jamar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG: 15381768664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SITUACAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIPO_DOCUMENTO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIPO_VIAGEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORGAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autorização de Viagem – FUNAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARTIGO37I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carteira de Trabalho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ministério do Trabalho e Emprego</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estrageiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carteira Nacional de Habilitação – CNH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DETRAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carteira Profissional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cédula de Identidade de Estrangeiro -CIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Embaixadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certidão Nascimento</t>
   </si>
   <si>
     <t xml:space="preserve">RF</t>
@@ -1237,8 +865,8 @@
   </sheetPr>
   <dimension ref="A2:H79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J71" activeCellId="0" sqref="J71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1318,1431 +946,1183 @@
       <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" s="15" t="str">
         <f aca="false">VLOOKUP($D8,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" s="15" t="str">
         <f aca="false">VLOOKUP($D9,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" s="15" t="str">
         <f aca="false">VLOOKUP($D10,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" s="15" t="str">
         <f aca="false">VLOOKUP($D11,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12" s="15" t="str">
         <f aca="false">VLOOKUP($D12,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" s="15" t="str">
         <f aca="false">VLOOKUP($D13,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="13"/>
     </row>
     <row r="14" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" s="15" t="str">
         <f aca="false">VLOOKUP($D14,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>39</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15" s="15" t="str">
         <f aca="false">VLOOKUP($D15,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>42</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E16" s="15" t="str">
         <f aca="false">VLOOKUP($D16,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>45</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="14" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E17" s="15" t="str">
         <f aca="false">VLOOKUP($D17,Info!$B$2:$E$14,4,0)</f>
-        <v>RF</v>
+        <v>SSP</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>49</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="14" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E18" s="15" t="str">
         <f aca="false">VLOOKUP($D18,Info!$B$2:$E$14,4,0)</f>
-        <v>RF</v>
+        <v>SSP</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="13"/>
     </row>
     <row r="19" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>52</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E19" s="15" t="str">
         <f aca="false">VLOOKUP($D19,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>55</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E20" s="15" t="str">
         <f aca="false">VLOOKUP($D20,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>58</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E21" s="15" t="str">
         <f aca="false">VLOOKUP($D21,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>61</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E22" s="15" t="str">
         <f aca="false">VLOOKUP($D22,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>64</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E23" s="15" t="str">
         <f aca="false">VLOOKUP($D23,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>67</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E24" s="15" t="str">
         <f aca="false">VLOOKUP($D24,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>70</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E25" s="15" t="str">
         <f aca="false">VLOOKUP($D25,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>73</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E26" s="15" t="str">
         <f aca="false">VLOOKUP($D26,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>76</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E27" s="15" t="str">
         <f aca="false">VLOOKUP($D27,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>79</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E28" s="15" t="str">
         <f aca="false">VLOOKUP($D28,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>82</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E29" s="15" t="str">
         <f aca="false">VLOOKUP($D29,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="13"/>
     </row>
     <row r="30" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>85</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E30" s="15" t="str">
         <f aca="false">VLOOKUP($D30,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G30" s="16"/>
       <c r="H30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>88</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E31" s="15" t="str">
         <f aca="false">VLOOKUP($D31,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>91</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E32" s="15" t="str">
         <f aca="false">VLOOKUP($D32,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>95</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E33" s="15" t="str">
         <f aca="false">VLOOKUP($D33,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="13"/>
     </row>
     <row r="34" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>98</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E34" s="15" t="str">
         <f aca="false">VLOOKUP($D34,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G34" s="16"/>
       <c r="H34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>101</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E35" s="15" t="str">
         <f aca="false">VLOOKUP($D35,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>105</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E36" s="15" t="str">
         <f aca="false">VLOOKUP($D36,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>108</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E37" s="15" t="str">
         <f aca="false">VLOOKUP($D37,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>111</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E38" s="15" t="str">
         <f aca="false">VLOOKUP($D38,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>114</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E39" s="15" t="str">
         <f aca="false">VLOOKUP($D39,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>117</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E40" s="15" t="str">
         <f aca="false">VLOOKUP($D40,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G40" s="16"/>
       <c r="H40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>120</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
       <c r="D41" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E41" s="15" t="str">
         <f aca="false">VLOOKUP($D41,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>123</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
       <c r="D42" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E42" s="15" t="str">
         <f aca="false">VLOOKUP($D42,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G42" s="16"/>
       <c r="H42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>126</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
       <c r="D43" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E43" s="15" t="str">
         <f aca="false">VLOOKUP($D43,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="13"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>129</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
       <c r="D44" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E44" s="15" t="str">
         <f aca="false">VLOOKUP($D44,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G44" s="16"/>
       <c r="H44" s="13"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>132</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E45" s="15" t="str">
         <f aca="false">VLOOKUP($D45,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="19"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>135</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
       <c r="D46" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E46" s="15" t="str">
         <f aca="false">VLOOKUP($D46,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G46" s="16"/>
       <c r="H46" s="13"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>138</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
       <c r="D47" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E47" s="15" t="str">
         <f aca="false">VLOOKUP($D47,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G47" s="16"/>
       <c r="H47" s="13"/>
     </row>
     <row r="48" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>141</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
       <c r="D48" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E48" s="15" t="str">
         <f aca="false">VLOOKUP($D48,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G48" s="16"/>
       <c r="H48" s="13"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>144</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
       <c r="D49" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E49" s="15" t="str">
         <f aca="false">VLOOKUP($D49,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G49" s="18"/>
       <c r="H49" s="19"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>147</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
       <c r="D50" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E50" s="15" t="str">
         <f aca="false">VLOOKUP($D50,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G50" s="18"/>
       <c r="H50" s="19"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>150</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
       <c r="D51" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E51" s="15" t="str">
         <f aca="false">VLOOKUP($D51,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G51" s="16"/>
       <c r="H51" s="13"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>153</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E52" s="15" t="str">
         <f aca="false">VLOOKUP($D52,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G52" s="16"/>
       <c r="H52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>156</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
       <c r="D53" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E53" s="15" t="str">
         <f aca="false">VLOOKUP($D53,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G53" s="16"/>
       <c r="H53" s="13"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>159</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
       <c r="D54" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E54" s="15" t="str">
         <f aca="false">VLOOKUP($D54,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>162</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E55" s="15" t="str">
         <f aca="false">VLOOKUP($D55,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G55" s="18"/>
       <c r="H55" s="19"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>165</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
       <c r="D56" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E56" s="15" t="str">
         <f aca="false">VLOOKUP($D56,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G56" s="16"/>
       <c r="H56" s="13"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>168</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
       <c r="D57" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E57" s="15" t="str">
         <f aca="false">VLOOKUP($D57,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G57" s="16"/>
       <c r="H57" s="13"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>171</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
       <c r="D58" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E58" s="15" t="str">
         <f aca="false">VLOOKUP($D58,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G58" s="16"/>
       <c r="H58" s="13"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>174</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
       <c r="D59" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E59" s="15" t="str">
         <f aca="false">VLOOKUP($D59,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G59" s="16"/>
       <c r="H59" s="13"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>177</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
       <c r="D60" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E60" s="15" t="str">
         <f aca="false">VLOOKUP($D60,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G60" s="16"/>
       <c r="H60" s="13"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>180</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
       <c r="D61" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E61" s="15" t="str">
         <f aca="false">VLOOKUP($D61,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G61" s="16"/>
       <c r="H61" s="13"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>183</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
       <c r="D62" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E62" s="15" t="str">
         <f aca="false">VLOOKUP($D62,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G62" s="16"/>
       <c r="H62" s="13"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>186</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
       <c r="D63" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E63" s="15" t="str">
         <f aca="false">VLOOKUP($D63,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G63" s="16"/>
       <c r="H63" s="13"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>189</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
       <c r="D64" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E64" s="15" t="str">
         <f aca="false">VLOOKUP($D64,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G64" s="16"/>
       <c r="H64" s="13"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>192</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
       <c r="D65" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E65" s="15" t="str">
         <f aca="false">VLOOKUP($D65,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G65" s="16"/>
       <c r="H65" s="13"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>195</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
       <c r="D66" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E66" s="15" t="str">
         <f aca="false">VLOOKUP($D66,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G66" s="18"/>
       <c r="H66" s="19"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>198</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
       <c r="D67" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E67" s="15" t="str">
         <f aca="false">VLOOKUP($D67,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G67" s="16"/>
       <c r="H67" s="13"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>201</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
       <c r="D68" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E68" s="15" t="str">
         <f aca="false">VLOOKUP($D68,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G68" s="16"/>
       <c r="H68" s="13"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>204</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
       <c r="D69" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E69" s="15" t="str">
         <f aca="false">VLOOKUP($D69,Info!$B$2:$E$14,4,0)</f>
         <v>SSP</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G69" s="16"/>
       <c r="H69" s="13"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="12" t="s">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -2757,7 +2137,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="12" t="s">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -2772,7 +2152,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="12" t="s">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="21"/>
@@ -2787,7 +2167,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="12" t="s">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -2802,7 +2182,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="12" t="s">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -2817,7 +2197,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="12" t="s">
-        <v>210</v>
+        <v>83</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="21"/>
@@ -2832,7 +2212,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="12" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -2847,7 +2227,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="12" t="s">
-        <v>212</v>
+        <v>85</v>
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -2862,7 +2242,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="12" t="s">
-        <v>213</v>
+        <v>86</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="21"/>
@@ -2877,7 +2257,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="12" t="s">
-        <v>214</v>
+        <v>87</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -2929,8 +2309,8 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="B8:C72 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2943,19 +2323,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>216</v>
+        <v>89</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>217</v>
+        <v>90</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2967,150 +2347,150 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>219</v>
+        <v>93</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>219</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>222</v>
+        <v>97</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>223</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="27" t="s">
-        <v>225</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>226</v>
+        <v>101</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>227</v>
+        <v>102</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26" t="s">
-        <v>228</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="25"/>
       <c r="B7" s="26" t="s">
-        <v>229</v>
+        <v>104</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26" t="s">
-        <v>228</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="25"/>
       <c r="B8" s="26" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26" t="s">
-        <v>231</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25"/>
       <c r="B9" s="26" t="s">
-        <v>232</v>
+        <v>107</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26" t="s">
-        <v>223</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26" t="s">
-        <v>233</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
-        <v>234</v>
+        <v>110</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26" t="s">
-        <v>231</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="25"/>
       <c r="B12" s="26" t="s">
-        <v>235</v>
+        <v>111</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26" t="s">
-        <v>236</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="25"/>
       <c r="B13" s="26" t="s">
-        <v>237</v>
+        <v>113</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26" t="s">
-        <v>231</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="25"/>
       <c r="B14" s="26" t="s">
-        <v>238</v>
+        <v>114</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="26" t="s">
-        <v>239</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
